--- a/QA Task 1/3. Positive and negative test cases.xlsx
+++ b/QA Task 1/3. Positive and negative test cases.xlsx
@@ -271,14 +271,11 @@
       <protection locked="0"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -292,9 +289,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -620,75 +614,75 @@
   <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="12.7109375" style="4" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" style="4" customWidth="1"/>
-    <col min="3" max="3" width="41.42578125" style="4" customWidth="1"/>
-    <col min="4" max="4" width="38.140625" style="4" customWidth="1"/>
-    <col min="5" max="5" width="9.28515625" style="4" customWidth="1"/>
-    <col min="6" max="6" width="45.5703125" style="4" customWidth="1"/>
-    <col min="7" max="7" width="51.28515625" style="4" customWidth="1"/>
-    <col min="8" max="16384" width="9.140625" style="4"/>
+    <col min="1" max="1" width="12.7109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="48.42578125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="41.42578125" style="3" customWidth="1"/>
+    <col min="4" max="4" width="38.140625" style="3" customWidth="1"/>
+    <col min="5" max="5" width="9.28515625" style="3" customWidth="1"/>
+    <col min="6" max="6" width="45.5703125" style="3" customWidth="1"/>
+    <col min="7" max="7" width="51.28515625" style="3" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="3" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A1" s="6" t="s">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A1" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B1" s="7" t="s">
+      <c r="B1" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C1" s="7" t="s">
+      <c r="C1" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="D1" s="7" t="s">
+      <c r="D1" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="E1" s="7" t="s">
+      <c r="E1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="7" t="s">
+      <c r="F1" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="7" t="s">
+      <c r="G1" s="6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="3" customFormat="1">
-      <c r="A2" s="2"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="8"/>
-    </row>
-    <row r="3" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A3" s="5">
-        <v>2</v>
-      </c>
-      <c r="B3" s="5" t="s">
+    <row r="2" spans="1:7" s="2" customFormat="1" ht="9.75" customHeight="1">
+      <c r="A2" s="14"/>
+      <c r="B2" s="14"/>
+      <c r="C2" s="14"/>
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A3" s="4">
+        <v>1</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="C3" s="10"/>
-      <c r="D3" s="10" t="s">
+      <c r="C3" s="8"/>
+      <c r="D3" s="8" t="s">
         <v>20</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="7" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="4" spans="1:7" s="12" customFormat="1" ht="30.75" customHeight="1">
+    <row r="4" spans="1:7" s="10" customFormat="1" ht="30.75" customHeight="1">
       <c r="A4" s="1"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -696,14 +690,14 @@
       <c r="E4" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="13" t="s">
+      <c r="F4" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="G4" s="9" t="s">
+      <c r="G4" s="7" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:7" s="12" customFormat="1" ht="30.75" customHeight="1">
+    <row r="5" spans="1:7" s="10" customFormat="1" ht="30.75" customHeight="1">
       <c r="A5" s="1"/>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
@@ -711,31 +705,31 @@
       <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="13" t="s">
+      <c r="F5" s="11" t="s">
         <v>25</v>
       </c>
-      <c r="G5" s="9" t="s">
+      <c r="G5" s="7" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="6" spans="1:7" s="12" customFormat="1" ht="30.75" customHeight="1">
+    <row r="6" spans="1:7" s="10" customFormat="1" ht="30.75" customHeight="1">
       <c r="A6" s="1"/>
       <c r="B6" s="1"/>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="8" t="s">
         <v>27</v>
       </c>
-      <c r="D6" s="10"/>
+      <c r="D6" s="8"/>
       <c r="E6" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="13" t="s">
+      <c r="F6" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="G6" s="9" t="s">
+      <c r="G6" s="7" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="7" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="7" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1" t="s">
@@ -745,14 +739,14 @@
       <c r="E7" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="F7" s="11" t="s">
+      <c r="F7" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="G7" s="9" t="s">
+      <c r="G7" s="7" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="12" customFormat="1" ht="15.75" customHeight="1">
+    <row r="8" spans="1:7" s="10" customFormat="1" ht="15.75" customHeight="1">
       <c r="A8" s="1"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -760,27 +754,27 @@
       <c r="E8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F8" s="11" t="s">
+      <c r="F8" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="G8" s="9" t="s">
+      <c r="G8" s="7" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A9" s="15"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="16"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-    </row>
-    <row r="10" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="9" spans="1:7" s="2" customFormat="1" ht="9" customHeight="1">
+      <c r="A9" s="13"/>
+      <c r="B9" s="14"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="14"/>
+      <c r="E9" s="14"/>
+      <c r="F9" s="14"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A10" s="1">
         <v>2</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="4" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="1"/>
@@ -797,7 +791,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:7" s="3" customFormat="1" ht="15.75" customHeight="1">
+    <row r="11" spans="1:7" s="2" customFormat="1" ht="15.75" customHeight="1">
       <c r="A11" s="1"/>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -812,7 +806,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:7" s="3" customFormat="1" ht="30.75" customHeight="1">
+    <row r="12" spans="1:7" s="2" customFormat="1" ht="30.75" customHeight="1">
       <c r="A12" s="1"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -823,13 +817,14 @@
       <c r="F12" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="G12" s="14" t="s">
+      <c r="G12" s="12" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="A9:G9"/>
+    <mergeCell ref="A2:G2"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="C6" r:id="rId1"/>
